--- a/bm_ours.xlsx
+++ b/bm_ours.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>BM\</t>
   </si>
@@ -97,6 +97,47 @@
  'throughput': 618.0119188596352, 
 'Accept_ratio': 2.96198185772418, 
 'TPOT_ratio': 0.24}</t>
+  </si>
+  <si>
+    <t>Speculative</t>
+  </si>
+  <si>
+    <t>{'batch_size': 20, 'request_speed': 3, 
+'average_latency': 23.645068958600362, 'throughput': 485.4301347757391, 'Accept_ratio': 3.488230975681175, 'TPOT_ratio': 0.03}</t>
+  </si>
+  <si>
+    <t>{'batch_size': 25, 'request_speed': 3, 
+'average_latency': 23.554441346327465, 
+'throughput': 492.98895582042735, 
+'Accept_ratio': 3.4876300881166706, 
+'TPOT_ratio': 0.013333333333333334}</t>
+  </si>
+  <si>
+    <t>{'batch_size': 30, 'request_speed': 3, 
+'average_latency': 22.71159597714742, 
+'throughput': 503.60209238020303, 
+'Accept_ratio': 3.488154659472575, '
+TPOT_ratio': 0.01}</t>
+  </si>
+  <si>
+    <t>Flash-attn</t>
+  </si>
+  <si>
+    <t>{'batch_size': 20, 'request_speed': 3, 
+'average_latency': 6.781626070340474, 'throughput': 615.014929452059, 'Accept_ratio': 1.0, 'TPOT_ratio': 1.0}</t>
+  </si>
+  <si>
+    <t>{'batch_size': 25, 'request_speed': 3, 
+'average_latency': 6.404468913873036, 
+'throughput': 620.7944786915875, 
+'Accept_ratio': 1.0, 'TPOT_ratio': 1.0}</t>
+  </si>
+  <si>
+    <t>{'batch_size': 30, 'request_speed': 3, 
+'average_latency': 6.2599346033732095, 
+'throughput': 618.1316609767221, 
+'Accept_ratio': 1.0, 
+'TPOT_ratio': 0.9966666666666667}</t>
   </si>
 </sst>
 </file>
@@ -109,10 +150,17 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -589,142 +637,151 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1257,10 +1314,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U10"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -1271,12 +1328,12 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1284,77 +1341,77 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>128</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <v>192</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3">
         <v>256</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
         <v>320</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="3" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1362,93 +1419,212 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>10</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
         <v>15</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
         <v>20</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3">
         <v>25</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
         <v>30</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:21">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3" t="s">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3" t="s">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="3" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="3" t="s">
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5">
+        <v>25</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
+        <v>30</v>
+      </c>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>20</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5">
+        <v>25</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5">
+        <v>30</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="2:13">
+      <c r="B20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="2:13">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="30">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="J4:M4"/>
@@ -1458,6 +1634,12 @@
     <mergeCell ref="J8:M8"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="R8:U8"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
     <mergeCell ref="B5:E6"/>
     <mergeCell ref="F5:I6"/>
     <mergeCell ref="J5:M6"/>
@@ -1467,6 +1649,12 @@
     <mergeCell ref="J9:M10"/>
     <mergeCell ref="N9:Q10"/>
     <mergeCell ref="R9:U10"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="F15:I16"/>
+    <mergeCell ref="J15:M16"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="F20:I21"/>
+    <mergeCell ref="J20:M21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
